--- a/book_list.xlsx
+++ b/book_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Project\bookscramble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EE7FFE-71E6-4A88-BE1A-4453D83BDA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F6A2A-66FC-47D1-9004-8AE4D17873C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{185513D4-FECF-4B10-97B9-FDBD0DB77F8E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,13 +72,44 @@
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book Titles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +124,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFDEDE"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,8 +154,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,57 +495,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B51406D-EF59-4A6A-B230-ECA32D66C201}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/book_list.xlsx
+++ b/book_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_Project\bookscramble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F6A2A-66FC-47D1-9004-8AE4D17873C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D9B597-5A0B-499B-8752-665C1E93CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{185513D4-FECF-4B10-97B9-FDBD0DB77F8E}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{68B57576-8CEB-4648-9885-392D8FCA25EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,69 +36,185 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+  <si>
+    <t>그리스로마신화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계를 건너 너에게 갈게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채식주의자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 아무도 없었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이처럼 사소한 것들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐르는 강물처럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호밀밭의 파수꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수레바퀴 아래에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브람스를 좋아하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오만과 편견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참을 수 없는 존재의 가벼움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람은 무엇으로 사는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람과 함께 사라지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젊은 베르테르의 슬픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔십일간의 세계 일주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지킬박사와 하이드씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양미술사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페르마의 마지막 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공리주의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편한 편의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽이고 싶은 아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색인간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사피엔스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침묵의봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린왕자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다빈치코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해리포터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아몬드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유진과유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분자조각가들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종의기원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이기적유전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방구석미술관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학의 역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한수학책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다정한 것이 살아남는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중나선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인의 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복탄력성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공하는 사람들의 7가지 습관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국경 전쟁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 내 건데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기후의 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지리의 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미움받을 용기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,10 +242,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFDEDE"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
+      <sz val="8"/>
+      <color rgb="FF6272A4"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,8 +611,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B51406D-EF59-4A6A-B230-ECA32D66C201}">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9972305-035D-466F-843A-A31AD6D290E9}">
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,7 +620,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
@@ -584,6 +701,161 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
